--- a/EV transport env impact .xlsx
+++ b/EV transport env impact .xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEGENSR\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C26B3-2066-4974-BE4A-9B82013C65EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>method</t>
   </si>
@@ -67,12 +73,60 @@
 car with internal combustion engine |
 RER | superstructure_2020_2040_final</t>
   </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>kg CO2-eq</t>
+  </si>
+  <si>
+    <t>CTUe</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>BAU 2021</t>
+  </si>
+  <si>
+    <t>BAU 2030</t>
+  </si>
+  <si>
+    <t>BAU 2040</t>
+  </si>
+  <si>
+    <t>Climate Ambitious 2030</t>
+  </si>
+  <si>
+    <t>Climate Ambitious 2021</t>
+  </si>
+  <si>
+    <t>Climate Ambitious 2040</t>
+  </si>
+  <si>
+    <t>EV|Global warming</t>
+  </si>
+  <si>
+    <t>EV|Ecotoxicity</t>
+  </si>
+  <si>
+    <t>EV|Materials</t>
+  </si>
+  <si>
+    <t>COMBUSTION|Ecotoxicity</t>
+  </si>
+  <si>
+    <t>COMBUSTION|Materials</t>
+  </si>
+  <si>
+    <t>COMBUSTION|Global warming</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,10 +178,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -135,7 +198,3741 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV|Global warming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BAU 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BAU 2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BAU 2040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Climate Ambitious 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Climate Ambitious 2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Climate Ambitious 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1564336597404743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1695913239279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1866858040700787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14227977435443551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12272672377899881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1122712902597864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8ABF-400F-B800-74A675C4DE5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBUSTION|Global warming</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-8ABF-400F-B800-74A675C4DE5E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35735100838344003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35514742840137381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35469697913747772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35685694889275232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34937396745898519</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33570178183357208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8ABF-400F-B800-74A675C4DE5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1563630400"/>
+        <c:axId val="1222956800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1563630400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222956800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1222956800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>kg-CO2-eq.</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563630400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV|Ecotoxicity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BAU 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BAU 2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BAU 2040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Climate Ambitious 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Climate Ambitious 2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Climate Ambitious 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4248677748915941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4335376671591209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4453283202752689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4067782368941839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3059766122741181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.224460506330477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FB24-44F6-AA3E-46AA7893C5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBUSTION|Ecotoxicity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9176900167278061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.91198802053654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9069244695790109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.916968309772725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.903584937887377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8731757904672812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-FB24-44F6-AA3E-46AA7893C5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1563630400"/>
+        <c:axId val="1222956800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1563630400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222956800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1222956800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>CTUe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563630400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV|Materials</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BAU 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BAU 2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BAU 2040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Climate Ambitious 2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Climate Ambitious 2030</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Climate Ambitious 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.242453361744446E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2527374861461574E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2679013661740533E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2504636496180862E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8147214554266455E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.336303727663728E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FB24-44F6-AA3E-46AA7893C5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>COMBUSTION|Materials</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-FB24-44F6-AA3E-46AA7893C5CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5582009477679588E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5609100475333438E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5652859770755869E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5581144736155941E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5611490872190888E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.57197178838795E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-FB24-44F6-AA3E-46AA7893C5CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1563630400"/>
+        <c:axId val="1222956800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1563630400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1222956800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1222956800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>ADP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563630400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596152</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB375185-9C88-17F8-AF14-608AD00BFB95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>192742</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1549CE-5BC5-4ED2-A2B5-9BF5ACF2A5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>192742</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48A510E-A0D8-F3C3-0A3D-75245A0AEF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +3978,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,9 +4010,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,6 +4062,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,67 +4255,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="66.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,99 +4435,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.424867774891594</v>
+        <v>1.4248677748915941</v>
       </c>
       <c r="C4">
-        <v>1.433537667159121</v>
+        <v>1.4335376671591209</v>
       </c>
       <c r="D4">
-        <v>1.445328320275269</v>
+        <v>1.4453283202752689</v>
       </c>
       <c r="E4">
-        <v>1.406778236894184</v>
+        <v>1.4067782368941839</v>
       </c>
       <c r="F4">
-        <v>1.305976612274118</v>
+        <v>1.3059766122741181</v>
       </c>
       <c r="G4">
         <v>1.224460506330477</v>
       </c>
       <c r="H4">
-        <v>0.0001243186930662549</v>
+        <v>1.2431869306625491E-4</v>
       </c>
       <c r="I4">
-        <v>0.0001463790759101305</v>
+        <v>1.4637907591013051E-4</v>
       </c>
       <c r="J4">
-        <v>0.0001710984431232474</v>
+        <v>1.7109844312324741E-4</v>
       </c>
       <c r="K4">
-        <v>9.86800661725032E-05</v>
+        <v>9.8680066172503197E-5</v>
       </c>
       <c r="L4">
-        <v>6.951862271605821E-05</v>
+        <v>6.951862271605821E-5</v>
       </c>
       <c r="M4">
-        <v>5.205829626948572E-05</v>
+        <v>5.2058296269485719E-5</v>
       </c>
       <c r="N4">
-        <v>9.242453361744446E-06</v>
+        <v>9.242453361744446E-6</v>
       </c>
       <c r="O4">
-        <v>9.252737486146157E-06</v>
+        <v>9.2527374861461574E-6</v>
       </c>
       <c r="P4">
-        <v>9.267901366174053E-06</v>
+        <v>9.2679013661740533E-6</v>
       </c>
       <c r="Q4">
-        <v>9.250463649618086E-06</v>
+        <v>9.2504636496180862E-6</v>
       </c>
       <c r="R4">
-        <v>8.814721455426645E-06</v>
+        <v>8.8147214554266455E-6</v>
       </c>
       <c r="S4">
-        <v>8.336303727663728E-06</v>
+        <v>8.336303727663728E-6</v>
       </c>
       <c r="T4">
-        <v>0.135148118256471</v>
+        <v>0.13514811825647099</v>
       </c>
       <c r="U4">
-        <v>0.1328041079900631</v>
+        <v>0.13280410799006309</v>
       </c>
       <c r="V4">
-        <v>0.1260763966039556</v>
+        <v>0.12607639660395559</v>
       </c>
       <c r="W4">
-        <v>0.1347681513917116</v>
+        <v>0.13476815139171161</v>
       </c>
       <c r="X4">
         <v>0.1183533081954113</v>
       </c>
       <c r="Y4">
-        <v>0.09196912698920016</v>
+        <v>9.1969126989200164E-2</v>
       </c>
       <c r="Z4">
-        <v>4.284329608692991E-10</v>
+        <v>4.2843296086929909E-10</v>
       </c>
       <c r="AA4">
-        <v>4.301173661152085E-10</v>
+        <v>4.3011736611520848E-10</v>
       </c>
       <c r="AB4">
-        <v>4.326163007512037E-10</v>
+        <v>4.3261630075120372E-10</v>
       </c>
       <c r="AC4">
-        <v>4.267301002936094E-10</v>
+        <v>4.2673010029360938E-10</v>
       </c>
       <c r="AD4">
-        <v>3.953290482134302E-10</v>
+        <v>3.9532904821343021E-10</v>
       </c>
       <c r="AE4">
-        <v>3.48539463460899E-10</v>
+        <v>3.4853946346089901E-10</v>
       </c>
       <c r="AF4">
         <v>0.1564336597404743</v>
@@ -699,27 +4539,27 @@
         <v>0.1866858040700787</v>
       </c>
       <c r="AI4">
-        <v>0.1422797743544355</v>
+        <v>0.14227977435443551</v>
       </c>
       <c r="AJ4">
-        <v>0.1227267237789988</v>
+        <v>0.12272672377899881</v>
       </c>
       <c r="AK4">
         <v>0.1122712902597864</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>2.917690016727806</v>
+        <v>2.9176900167278061</v>
       </c>
       <c r="C5">
         <v>2.91198802053654</v>
       </c>
       <c r="D5">
-        <v>2.906924469579011</v>
+        <v>2.9069244695790109</v>
       </c>
       <c r="E5">
         <v>2.916968309772725</v>
@@ -728,108 +4568,289 @@
         <v>2.903584937887377</v>
       </c>
       <c r="G5">
-        <v>2.873175790467281</v>
+        <v>2.8731757904672812</v>
       </c>
       <c r="H5">
-        <v>4.951774758033729E-05</v>
+        <v>4.9517747580337289E-5</v>
       </c>
       <c r="I5">
-        <v>4.703550379823858E-05</v>
+        <v>4.703550379823858E-5</v>
       </c>
       <c r="J5">
-        <v>4.91176397435583E-05</v>
+        <v>4.9117639743558297E-5</v>
       </c>
       <c r="K5">
-        <v>4.915407010188117E-05</v>
+        <v>4.9154070101881173E-5</v>
       </c>
       <c r="L5">
-        <v>4.232449766169529E-05</v>
+        <v>4.2324497661695291E-5</v>
       </c>
       <c r="M5">
-        <v>3.082282964538538E-05</v>
+        <v>3.0822829645385382E-5</v>
       </c>
       <c r="N5">
-        <v>3.558200947767959E-06</v>
+        <v>3.5582009477679588E-6</v>
       </c>
       <c r="O5">
-        <v>3.560910047533344E-06</v>
+        <v>3.5609100475333438E-6</v>
       </c>
       <c r="P5">
-        <v>3.565285977075587E-06</v>
+        <v>3.5652859770755869E-6</v>
       </c>
       <c r="Q5">
-        <v>3.558114473615594E-06</v>
+        <v>3.5581144736155941E-6</v>
       </c>
       <c r="R5">
-        <v>3.561149087219089E-06</v>
+        <v>3.5611490872190888E-6</v>
       </c>
       <c r="S5">
-        <v>3.57197178838795E-06</v>
+        <v>3.57197178838795E-6</v>
       </c>
       <c r="T5">
-        <v>0.03911301265680475</v>
+        <v>3.9113012656804752E-2</v>
       </c>
       <c r="U5">
-        <v>0.03884819325742105</v>
+        <v>3.8848193257421053E-2</v>
       </c>
       <c r="V5">
-        <v>0.03714207635439883</v>
+        <v>3.7142076354398833E-2</v>
       </c>
       <c r="W5">
-        <v>0.03912327581683595</v>
+        <v>3.9123275816835952E-2</v>
       </c>
       <c r="X5">
-        <v>0.03932725654751168</v>
+        <v>3.932725654751168E-2</v>
       </c>
       <c r="Y5">
-        <v>0.03745964529496661</v>
+        <v>3.7459645294966613E-2</v>
       </c>
       <c r="Z5">
-        <v>3.201443233664915E-10</v>
+        <v>3.2014432336649151E-10</v>
       </c>
       <c r="AA5">
-        <v>3.197375532681876E-10</v>
+        <v>3.1973755326818762E-10</v>
       </c>
       <c r="AB5">
-        <v>3.197094973158732E-10</v>
+        <v>3.1970949731587323E-10</v>
       </c>
       <c r="AC5">
-        <v>3.200928561021912E-10</v>
+        <v>3.2009285610219121E-10</v>
       </c>
       <c r="AD5">
-        <v>3.19105681659077E-10</v>
+        <v>3.1910568165907702E-10</v>
       </c>
       <c r="AE5">
-        <v>3.168723618048642E-10</v>
+        <v>3.1687236180486418E-10</v>
       </c>
       <c r="AF5">
-        <v>0.35735100838344</v>
+        <v>0.35735100838344003</v>
       </c>
       <c r="AG5">
-        <v>0.3551474284013738</v>
+        <v>0.35514742840137381</v>
       </c>
       <c r="AH5">
-        <v>0.3546969791374777</v>
+        <v>0.35469697913747772</v>
       </c>
       <c r="AI5">
-        <v>0.3568569488927523</v>
+        <v>0.35685694889275232</v>
       </c>
       <c r="AJ5">
-        <v>0.3493739674589852</v>
+        <v>0.34937396745898519</v>
       </c>
       <c r="AK5">
-        <v>0.3357017818335721</v>
+        <v>0.33570178183357208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.1564336597404743</v>
+      </c>
+      <c r="D9">
+        <v>0.1695913239279625</v>
+      </c>
+      <c r="E9">
+        <v>0.1866858040700787</v>
+      </c>
+      <c r="F9">
+        <v>0.14227977435443551</v>
+      </c>
+      <c r="G9">
+        <v>0.12272672377899881</v>
+      </c>
+      <c r="H9">
+        <v>0.1122712902597864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.4248677748915941</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.4335376671591209</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.4453283202752689</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.4067782368941839</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.3059766122741181</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.224460506330477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>9.242453361744446E-6</v>
+      </c>
+      <c r="D11">
+        <v>9.2527374861461574E-6</v>
+      </c>
+      <c r="E11">
+        <v>9.2679013661740533E-6</v>
+      </c>
+      <c r="F11">
+        <v>9.2504636496180862E-6</v>
+      </c>
+      <c r="G11">
+        <v>8.8147214554266455E-6</v>
+      </c>
+      <c r="H11">
+        <v>8.336303727663728E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0.35735100838344003</v>
+      </c>
+      <c r="D25">
+        <v>0.35514742840137381</v>
+      </c>
+      <c r="E25">
+        <v>0.35469697913747772</v>
+      </c>
+      <c r="F25">
+        <v>0.35685694889275232</v>
+      </c>
+      <c r="G25">
+        <v>0.34937396745898519</v>
+      </c>
+      <c r="H25">
+        <v>0.33570178183357208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>2.9176900167278061</v>
+      </c>
+      <c r="D26">
+        <v>2.91198802053654</v>
+      </c>
+      <c r="E26">
+        <v>2.9069244695790109</v>
+      </c>
+      <c r="F26">
+        <v>2.916968309772725</v>
+      </c>
+      <c r="G26">
+        <v>2.903584937887377</v>
+      </c>
+      <c r="H26">
+        <v>2.8731757904672812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>3.5582009477679588E-6</v>
+      </c>
+      <c r="D27">
+        <v>3.5609100475333438E-6</v>
+      </c>
+      <c r="E27">
+        <v>3.5652859770755869E-6</v>
+      </c>
+      <c r="F27">
+        <v>3.5581144736155941E-6</v>
+      </c>
+      <c r="G27">
+        <v>3.5611490872190888E-6</v>
+      </c>
+      <c r="H27">
+        <v>3.57197178838795E-6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>